--- a/data/cytotox_data.xlsx
+++ b/data/cytotox_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lizbethgomez/Desktop/CUMC-MPH/Spring 2020/COMP TOX/Session 2/comp_toxhw1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2B552D7-5289-234A-9CBC-A7153070E689}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533EE7AA-601F-1D4B-B144-A5568B7E44FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15960" xr2:uid="{6690942C-C238-ED49-A892-0A41450B9452}"/>
   </bookViews>
@@ -415,15 +415,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1320B00C-7CB3-224C-AE45-5189EE181D66}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,7 +449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="20" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -474,8 +474,9 @@
       <c r="H2">
         <v>8.2185740372137079</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="20" x14ac:dyDescent="0.2">
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" ht="20" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1E-3</v>
       </c>
@@ -500,8 +501,9 @@
       <c r="H3">
         <v>7.5370435308734729</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="20" x14ac:dyDescent="0.2">
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" ht="20" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>0.01</v>
       </c>
@@ -526,8 +528,9 @@
       <c r="H4">
         <v>6.2043999733199806</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="20" x14ac:dyDescent="0.2">
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" ht="20" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>0.05</v>
       </c>
@@ -552,8 +555,9 @@
       <c r="H5">
         <v>10.27570659901426</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="20" x14ac:dyDescent="0.2">
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" ht="20" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>0.1</v>
       </c>
@@ -578,8 +582,9 @@
       <c r="H6">
         <v>24.226594914881986</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="20" x14ac:dyDescent="0.2">
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" ht="20" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>0.25</v>
       </c>
@@ -604,8 +609,9 @@
       <c r="H7">
         <v>31.97767248778705</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="20" x14ac:dyDescent="0.2">
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" ht="20" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>0.5</v>
       </c>
@@ -630,8 +636,9 @@
       <c r="H8">
         <v>34.971718991798589</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="20" x14ac:dyDescent="0.2">
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" ht="20" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -656,8 +663,9 @@
       <c r="H9">
         <v>26.418932819548733</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="20" x14ac:dyDescent="0.2">
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" ht="20" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>2.5</v>
       </c>
@@ -682,8 +690,9 @@
       <c r="H10">
         <v>28.884270628079346</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="20" x14ac:dyDescent="0.2">
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" ht="20" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>5</v>
       </c>
@@ -708,6 +717,157 @@
       <c r="H11">
         <v>24.735796175927049</v>
       </c>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" ht="20" x14ac:dyDescent="0.2">
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" ht="20" x14ac:dyDescent="0.2">
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" ht="20" x14ac:dyDescent="0.2">
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" ht="20" x14ac:dyDescent="0.2">
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" ht="20" x14ac:dyDescent="0.2">
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="12:12" ht="20" x14ac:dyDescent="0.2">
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="12:12" ht="20" x14ac:dyDescent="0.2">
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="12:12" ht="20" x14ac:dyDescent="0.2">
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="12:12" ht="20" x14ac:dyDescent="0.2">
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="12:12" ht="20" x14ac:dyDescent="0.2">
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="12:12" ht="20" x14ac:dyDescent="0.2">
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="12:12" ht="20" x14ac:dyDescent="0.2">
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="12:12" ht="20" x14ac:dyDescent="0.2">
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="12:12" ht="20" x14ac:dyDescent="0.2">
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="12:12" ht="20" x14ac:dyDescent="0.2">
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="12:12" ht="20" x14ac:dyDescent="0.2">
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="12:12" ht="20" x14ac:dyDescent="0.2">
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="12:12" ht="20" x14ac:dyDescent="0.2">
+      <c r="L29" s="1"/>
+    </row>
+    <row r="30" spans="12:12" ht="20" x14ac:dyDescent="0.2">
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31" spans="12:12" ht="20" x14ac:dyDescent="0.2">
+      <c r="L31" s="1"/>
+    </row>
+    <row r="32" spans="12:12" ht="20" x14ac:dyDescent="0.2">
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="12:12" ht="20" x14ac:dyDescent="0.2">
+      <c r="L33" s="1"/>
+    </row>
+    <row r="34" spans="12:12" ht="20" x14ac:dyDescent="0.2">
+      <c r="L34" s="1"/>
+    </row>
+    <row r="35" spans="12:12" ht="20" x14ac:dyDescent="0.2">
+      <c r="L35" s="1"/>
+    </row>
+    <row r="36" spans="12:12" ht="20" x14ac:dyDescent="0.2">
+      <c r="L36" s="1"/>
+    </row>
+    <row r="37" spans="12:12" ht="20" x14ac:dyDescent="0.2">
+      <c r="L37" s="1"/>
+    </row>
+    <row r="38" spans="12:12" ht="20" x14ac:dyDescent="0.2">
+      <c r="L38" s="1"/>
+    </row>
+    <row r="39" spans="12:12" ht="20" x14ac:dyDescent="0.2">
+      <c r="L39" s="1"/>
+    </row>
+    <row r="40" spans="12:12" ht="20" x14ac:dyDescent="0.2">
+      <c r="L40" s="1"/>
+    </row>
+    <row r="41" spans="12:12" ht="20" x14ac:dyDescent="0.2">
+      <c r="L41" s="1"/>
+    </row>
+    <row r="42" spans="12:12" ht="20" x14ac:dyDescent="0.2">
+      <c r="L42" s="1"/>
+    </row>
+    <row r="43" spans="12:12" ht="20" x14ac:dyDescent="0.2">
+      <c r="L43" s="1"/>
+    </row>
+    <row r="44" spans="12:12" ht="20" x14ac:dyDescent="0.2">
+      <c r="L44" s="1"/>
+    </row>
+    <row r="45" spans="12:12" ht="20" x14ac:dyDescent="0.2">
+      <c r="L45" s="1"/>
+    </row>
+    <row r="46" spans="12:12" ht="20" x14ac:dyDescent="0.2">
+      <c r="L46" s="1"/>
+    </row>
+    <row r="47" spans="12:12" ht="20" x14ac:dyDescent="0.2">
+      <c r="L47" s="1"/>
+    </row>
+    <row r="48" spans="12:12" ht="20" x14ac:dyDescent="0.2">
+      <c r="L48" s="1"/>
+    </row>
+    <row r="49" spans="12:12" ht="20" x14ac:dyDescent="0.2">
+      <c r="L49" s="1"/>
+    </row>
+    <row r="50" spans="12:12" ht="20" x14ac:dyDescent="0.2">
+      <c r="L50" s="1"/>
+    </row>
+    <row r="51" spans="12:12" ht="20" x14ac:dyDescent="0.2">
+      <c r="L51" s="1"/>
+    </row>
+    <row r="52" spans="12:12" ht="20" x14ac:dyDescent="0.2">
+      <c r="L52" s="1"/>
+    </row>
+    <row r="53" spans="12:12" ht="20" x14ac:dyDescent="0.2">
+      <c r="L53" s="1"/>
+    </row>
+    <row r="54" spans="12:12" ht="20" x14ac:dyDescent="0.2">
+      <c r="L54" s="1"/>
+    </row>
+    <row r="55" spans="12:12" ht="20" x14ac:dyDescent="0.2">
+      <c r="L55" s="1"/>
+    </row>
+    <row r="56" spans="12:12" ht="20" x14ac:dyDescent="0.2">
+      <c r="L56" s="1"/>
+    </row>
+    <row r="57" spans="12:12" ht="20" x14ac:dyDescent="0.2">
+      <c r="L57" s="1"/>
+    </row>
+    <row r="58" spans="12:12" ht="20" x14ac:dyDescent="0.2">
+      <c r="L58" s="1"/>
+    </row>
+    <row r="59" spans="12:12" ht="20" x14ac:dyDescent="0.2">
+      <c r="L59" s="1"/>
+    </row>
+    <row r="60" spans="12:12" ht="20" x14ac:dyDescent="0.2">
+      <c r="L60" s="1"/>
+    </row>
+    <row r="61" spans="12:12" ht="20" x14ac:dyDescent="0.2">
+      <c r="L61" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/cytotox_data.xlsx
+++ b/data/cytotox_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lizbethgomez/Desktop/CUMC-MPH/Spring 2020/COMP TOX/Session 2/comp_toxhw1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533EE7AA-601F-1D4B-B144-A5568B7E44FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E17A3C-0C51-EB43-865F-B8DC0BE1C3EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15960" xr2:uid="{6690942C-C238-ED49-A892-0A41450B9452}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Concentration</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>rep_6</t>
+  </si>
+  <si>
+    <t>from_ctr</t>
   </si>
 </sst>
 </file>
@@ -418,10 +421,10 @@
   <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="21.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -448,6 +451,9 @@
       <c r="H1" t="s">
         <v>1</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="1:12" ht="20" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
@@ -472,7 +478,12 @@
         <v>3.6912751677852351</v>
       </c>
       <c r="H2">
+        <f>AVERAGE(B2:G2)</f>
         <v>8.2185740372137079</v>
+      </c>
+      <c r="I2">
+        <f>H2/H2</f>
+        <v>1</v>
       </c>
       <c r="L2" s="1"/>
     </row>
@@ -499,7 +510,12 @@
         <v>7.470511140235911</v>
       </c>
       <c r="H3">
+        <f t="shared" ref="H3:H11" si="0">AVERAGE(B3:G3)</f>
         <v>7.5370435308734729</v>
+      </c>
+      <c r="I3">
+        <f>H3/$H$2*100</f>
+        <v>91.707436067932662</v>
       </c>
       <c r="L3" s="1"/>
     </row>
@@ -526,7 +542,12 @@
         <v>2.7293064876957494</v>
       </c>
       <c r="H4">
+        <f t="shared" si="0"/>
         <v>6.2043999733199806</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I11" si="1">H4/$H$2*100</f>
+        <v>75.492414441075226</v>
       </c>
       <c r="L4" s="1"/>
     </row>
@@ -553,7 +574,12 @@
         <v>10.071942446043165</v>
       </c>
       <c r="H5">
+        <f t="shared" si="0"/>
         <v>10.27570659901426</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>125.03028569780908</v>
       </c>
       <c r="L5" s="1"/>
     </row>
@@ -580,7 +606,12 @@
         <v>14.273504273504273</v>
       </c>
       <c r="H6">
+        <f t="shared" si="0"/>
         <v>24.226594914881986</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>294.77856870527603</v>
       </c>
       <c r="L6" s="1"/>
     </row>
@@ -607,7 +638,12 @@
         <v>40.889167188478396</v>
       </c>
       <c r="H7">
+        <f t="shared" si="0"/>
         <v>31.97767248778705</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>389.09027701146368</v>
       </c>
       <c r="L7" s="1"/>
     </row>
@@ -634,7 +670,12 @@
         <v>44</v>
       </c>
       <c r="H8">
+        <f t="shared" si="0"/>
         <v>34.971718991798589</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>425.52052014676303</v>
       </c>
       <c r="L8" s="1"/>
     </row>
@@ -661,7 +702,12 @@
         <v>23.981373690337602</v>
       </c>
       <c r="H9">
+        <f t="shared" si="0"/>
         <v>26.418932819548733</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>321.45397364462241</v>
       </c>
       <c r="L9" s="1"/>
     </row>
@@ -688,7 +734,12 @@
         <v>28.881469115191987</v>
       </c>
       <c r="H10">
-        <v>28.884270628079346</v>
+        <f t="shared" si="0"/>
+        <v>28.884270628079349</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>351.45112153630731</v>
       </c>
       <c r="L10" s="1"/>
     </row>
@@ -715,7 +766,12 @@
         <v>21.323529411764707</v>
       </c>
       <c r="H11">
+        <f t="shared" si="0"/>
         <v>24.735796175927049</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>300.97430605264799</v>
       </c>
       <c r="L11" s="1"/>
     </row>

--- a/data/cytotox_data.xlsx
+++ b/data/cytotox_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lizbethgomez/Desktop/CUMC-MPH/Spring 2020/COMP TOX/Session 2/comp_toxhw1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E17A3C-0C51-EB43-865F-B8DC0BE1C3EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98250C93-4725-0B47-988D-A138F072FE5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15960" xr2:uid="{6690942C-C238-ED49-A892-0A41450B9452}"/>
   </bookViews>
@@ -421,7 +421,7 @@
   <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -482,8 +482,8 @@
         <v>8.2185740372137079</v>
       </c>
       <c r="I2">
-        <f>H2/H2</f>
-        <v>1</v>
+        <f>H2/H2*100</f>
+        <v>100</v>
       </c>
       <c r="L2" s="1"/>
     </row>
